--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0EAAA8-F325-4CFE-AE48-F224FA8140E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15ECB695-9C83-41DF-97B8-3C9EF60AE69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15ECB695-9C83-41DF-97B8-3C9EF60AE69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C630B2-9B87-4C8F-859C-2579363AFF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
     <t>2021 R1</t>
   </si>
   <si>
-    <t>http://192.168.168.107/</t>
+    <t>http://192.168.168.111/</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C630B2-9B87-4C8F-859C-2579363AFF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019600AF-DFE3-45D9-977C-5A26D6964FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
     <t>2021 R1</t>
   </si>
   <si>
-    <t>http://192.168.168.111/</t>
+    <t>http://192.168.168.107/</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019600AF-DFE3-45D9-977C-5A26D6964FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FC4C9D-2794-498A-AD5E-19A5027AC64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
     <t>2021 R1</t>
   </si>
   <si>
-    <t>http://192.168.168.107/</t>
+    <t>http://192.168.168.111/</t>
   </si>
 </sst>
 </file>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FC4C9D-2794-498A-AD5E-19A5027AC64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDC0E7F-A955-4862-9B1D-01086DF3341C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="3645" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
     <t>2021 R1</t>
   </si>
   <si>
-    <t>http://192.168.168.111/</t>
+    <t>http://192.168.168.107/</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
